--- a/partidas_merged.xlsx
+++ b/partidas_merged.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,695 +436,441 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>Data</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>Liga</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Casa</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Logo Casa</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Visitante</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Logo Visitante</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Prediction_Vencedor</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Vencedor</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Prediction_Gols_Casa</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Gols_Casa</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Prediction_Gols_Visitante</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Gols_Visitante</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Data</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Liga Panameña de Fútbol</t>
+          <t>15/11/2025 — 21:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Independiente de La Chorrera</t>
+          <t>Serie A</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>https://media.api-sports.io/football/teams/2890.png</t>
+          <t>Santos</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Sporting San Miguelito</t>
+          <t>https://media.api-sports.io/football/teams/128.png</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://media.api-sports.io/football/teams/2889.png</t>
+          <t>Palmeiras</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Independiente de La Chorrera</t>
+          <t>https://media.api-sports.io/football/teams/121.png</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Independiente de La Chorrera</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
+          <t>Palmeiras</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Santos</t>
+        </is>
+      </c>
+      <c r="I2" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2" t="n">
         <v>2.5</v>
       </c>
-      <c r="I2" t="n">
-        <v>2</v>
-      </c>
-      <c r="J2" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="K2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Primera B</t>
+          <t>15/11/2025 — 21:00</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Popayan</t>
+          <t>Liga Premier Serie A</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>https://media.api-sports.io/football/teams/1460.png</t>
+          <t>Tapachula</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Patriotas</t>
+          <t>https://media.api-sports.io/football/teams/24954.png</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://media.api-sports.io/football/teams/1140.png</t>
+          <t>Cañoneros Marina</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Patriotas</t>
+          <t>https://media.api-sports.io/football/teams/15924.png</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Popayan</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
+          <t>Cañoneros Marina</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Tapachula</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="J3" t="n">
+        <v>6</v>
+      </c>
+      <c r="K3" t="n">
         <v>1.5</v>
       </c>
-      <c r="I3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="K3" t="n">
+      <c r="L3" t="n">
         <v>0</v>
       </c>
-      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>AFC Women's Champions League</t>
+          <t>15/11/2025 — 21:00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ispe W</t>
+          <t>CONCACAF Series</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://media.api-sports.io/football/teams/26441.png</t>
+          <t>St. Vincent / Grenadines</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Tokyo Verdy Beleza W</t>
+          <t>https://media.api-sports.io/football/teams/5541.png</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>https://media.api-sports.io/football/teams/16951.png</t>
+          <t>St. Lucia</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Ispe W</t>
+          <t>https://media.api-sports.io/football/teams/5540.png</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Tokyo Verdy Beleza W</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>5.5</v>
+          <t>St. Lucia</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>St. Vincent / Grenadines</t>
+        </is>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
         <v>1</v>
       </c>
-      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Liga 2</t>
+          <t>16/11/2025 — 21:00</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Tornado Pekanbaru</t>
+          <t>Liga Nacional</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://media.api-sports.io/football/teams/26648.png</t>
+          <t>Antigua GFC</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Barito Putera</t>
+          <t>https://media.api-sports.io/football/teams/3656.png</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>https://media.api-sports.io/football/teams/2453.png</t>
+          <t>Comunicaciones</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Barito Putera</t>
+          <t>https://media.api-sports.io/football/teams/3658.png</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Barito Putera</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
+          <t>Antigua GFC</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Antigua GFC</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
         <v>2.5</v>
       </c>
-      <c r="I5" t="n">
+      <c r="J5" t="n">
+        <v>3</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="L5" t="n">
         <v>1</v>
       </c>
-      <c r="J5" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="K5" t="n">
-        <v>2</v>
-      </c>
-      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Liga Panameña de Fútbol</t>
+          <t>16/11/2025 — 21:00</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Independiente de La Chorrera</t>
+          <t>Division di Honor</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>https://media.api-sports.io/football/teams/2890.png</t>
+          <t>Bubali</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Sporting San Miguelito</t>
+          <t>https://media.api-sports.io/football/teams/8235.png</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>https://media.api-sports.io/football/teams/2889.png</t>
+          <t>La Fama</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Independiente de La Chorrera</t>
+          <t>https://media.api-sports.io/football/teams/8239.png</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Independiente de La Chorrera</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
+          <t>La Fama</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>La Fama</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
         <v>2.5</v>
       </c>
-      <c r="I6" t="n">
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="L6" t="n">
         <v>2</v>
-      </c>
-      <c r="J6" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="K6" t="n">
-        <v>1</v>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>2025-11-12</t>
-        </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Primera B</t>
+          <t>16/11/2025 — 21:00</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Popayan</t>
+          <t>Primera Division</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>https://media.api-sports.io/football/teams/1460.png</t>
+          <t>Rancho Santana</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Patriotas</t>
+          <t>https://media.api-sports.io/football/teams/24510.png</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>https://media.api-sports.io/football/teams/1140.png</t>
+          <t>Real Madriz</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Patriotas</t>
+          <t>https://media.api-sports.io/football/teams/4646.png</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Popayan</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>1.5</v>
+          <t>Real Madriz</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Rancho Santana</t>
+        </is>
       </c>
       <c r="I7" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="J7" t="n">
         <v>1</v>
       </c>
-      <c r="J7" t="n">
+      <c r="K7" t="n">
         <v>2.5</v>
       </c>
-      <c r="K7" t="n">
+      <c r="L7" t="n">
         <v>0</v>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>2025-11-12</t>
-        </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>AFC Women's Champions League</t>
+          <t>16/11/2025 — 21:30</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Ispe W</t>
+          <t>Primera B</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>https://media.api-sports.io/football/teams/26441.png</t>
+          <t>Real Soacha</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Tokyo Verdy Beleza W</t>
+          <t>https://media.api-sports.io/football/teams/22099.png</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>https://media.api-sports.io/football/teams/16951.png</t>
+          <t>Real Cartagena</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Ispe W</t>
+          <t>https://media.api-sports.io/football/teams/1459.png</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Tokyo Verdy Beleza W</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>5.5</v>
+          <t>Real Soacha</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Real Cartagena</t>
+        </is>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="J8" t="n">
-        <v>4.5</v>
+        <v>1</v>
       </c>
       <c r="K8" t="n">
-        <v>1</v>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>2025-11-12</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Liga 2</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Tornado Pekanbaru</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>https://media.api-sports.io/football/teams/26648.png</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Barito Putera</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>https://media.api-sports.io/football/teams/2453.png</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Barito Putera</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>Barito Putera</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="I9" t="n">
-        <v>1</v>
-      </c>
-      <c r="J9" t="n">
         <v>1.5</v>
       </c>
-      <c r="K9" t="n">
+      <c r="L8" t="n">
         <v>2</v>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>2025-11-12</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>National League - National</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Wellington Phoenix II</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>https://media.api-sports.io/football/teams/2535.png</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Coastal Spirit</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>https://media.api-sports.io/football/teams/20660.png</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Empate</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>Wellington Phoenix II</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="I10" t="n">
-        <v>1</v>
-      </c>
-      <c r="J10" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>2025-11-15</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Kings Cup</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Furia</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>https://media.api-sports.io/football/teams/26901.png</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>G3X</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>https://media.api-sports.io/football/teams/26902.png</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>G3X</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>Furia</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="I11" t="n">
-        <v>4</v>
-      </c>
-      <c r="J11" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="K11" t="n">
-        <v>4</v>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>2025-11-15</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Liga Premier Serie A</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Zitacuaro</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>https://media.api-sports.io/football/teams/15940.png</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Lobos ULMX</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>https://media.api-sports.io/football/teams/17787.png</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Lobos ULMX</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>Lobos ULMX</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="I12" t="n">
-        <v>1</v>
-      </c>
-      <c r="J12" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="K12" t="n">
-        <v>2</v>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>2025-11-15</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Liga Premier Serie A</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Héroes de Zaci</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>https://media.api-sports.io/football/teams/26526.png</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>Inter Playa del Carmen</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>https://media.api-sports.io/football/teams/12793.png</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>Héroes de Zaci</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>Héroes de Zaci</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="I13" t="n">
-        <v>3</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="K13" t="n">
-        <v>2</v>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>2025-11-15</t>
-        </is>
       </c>
     </row>
   </sheetData>
